--- a/results/mp/logistic/corona/confidence/126/0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,7 +43,7 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>die</t>
+    <t>crude</t>
   </si>
   <si>
     <t>panic</t>
@@ -52,12 +52,6 @@
     <t>sc</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -70,145 +64,145 @@
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
-    <t>co</t>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>in</t>
   </si>
   <si>
     <t>a</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>in</t>
   </si>
 </sst>
 </file>
@@ -574,10 +568,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,13 +629,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7671232876712328</v>
+        <v>0.7568493150684932</v>
       </c>
       <c r="C3">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D3">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,10 +647,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -685,7 +679,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6756756756756757</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C4">
         <v>25</v>
@@ -703,19 +697,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -727,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,13 +729,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4457364341085271</v>
+        <v>0.4321705426356589</v>
       </c>
       <c r="C5">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D5">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -806,25 +800,25 @@
         <v>108</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8828828828828829</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M6">
         <v>99</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <v>13</v>
@@ -835,13 +829,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4266666666666667</v>
+        <v>0.302013422818792</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.8787878787878788</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="L7">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="M7">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.423728813559322</v>
+        <v>0.2055555555555555</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>34</v>
+        <v>286</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.839622641509434</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +929,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.302013422818792</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8328981723237598</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>319</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>319</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +979,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2555555555555555</v>
+        <v>0.07774798927613941</v>
       </c>
       <c r="C10">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>268</v>
+        <v>344</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.8198433420365535</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L10">
-        <v>314</v>
+        <v>68</v>
       </c>
       <c r="M10">
-        <v>314</v>
+        <v>68</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1027,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>69</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1035,37 +1029,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1468253968253968</v>
+        <v>0.01841680129240711</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D11">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>215</v>
+        <v>3038</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.8125</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,37 +1079,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1021505376344086</v>
+        <v>0.01693320790216369</v>
       </c>
       <c r="C12">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E12">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="F12">
-        <v>0.97</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>334</v>
+        <v>2090</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,37 +1129,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01988155668358714</v>
+        <v>0.01357082273112807</v>
       </c>
       <c r="C13">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E13">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="F13">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>2317</v>
+        <v>2326</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.7890625</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L13">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1177,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,37 +1179,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01943634596695821</v>
+        <v>0.00866482867270579</v>
       </c>
       <c r="C14">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D14">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="E14">
-        <v>0.25</v>
+        <v>0.66</v>
       </c>
       <c r="F14">
-        <v>0.75</v>
+        <v>0.34</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>3027</v>
+        <v>5034</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K14">
-        <v>0.7887323943661971</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1227,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1235,37 +1229,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.01491228070175439</v>
+        <v>0.007921998781230956</v>
       </c>
       <c r="C15">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D15">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="E15">
-        <v>0.46</v>
+        <v>0.65</v>
       </c>
       <c r="F15">
-        <v>0.54</v>
+        <v>0.35</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>2246</v>
+        <v>4884</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.7875</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L15">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1277,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1285,263 +1279,167 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01224105461393597</v>
+        <v>0.007219375873311598</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E16">
-        <v>0.42</v>
+        <v>0.52</v>
       </c>
       <c r="F16">
-        <v>0.5800000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>2098</v>
+        <v>4263</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>0.7535211267605634</v>
+      </c>
+      <c r="L16">
+        <v>107</v>
+      </c>
+      <c r="M16">
+        <v>107</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17">
+        <v>0.746031746031746</v>
+      </c>
+      <c r="L17">
+        <v>47</v>
+      </c>
+      <c r="M17">
+        <v>47</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18">
+        <v>0.7441860465116279</v>
+      </c>
+      <c r="L18">
+        <v>32</v>
+      </c>
+      <c r="M18">
+        <v>32</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19">
+        <v>0.7421875</v>
+      </c>
+      <c r="L19">
+        <v>95</v>
+      </c>
+      <c r="M19">
+        <v>95</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K16">
-        <v>0.7804878048780488</v>
-      </c>
-      <c r="L16">
-        <v>64</v>
-      </c>
-      <c r="M16">
-        <v>64</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.01021611001964636</v>
-      </c>
-      <c r="C17">
-        <v>52</v>
-      </c>
-      <c r="D17">
-        <v>127</v>
-      </c>
-      <c r="E17">
-        <v>0.59</v>
-      </c>
-      <c r="F17">
-        <v>0.41</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>5038</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="K20">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L20">
+        <v>25</v>
+      </c>
+      <c r="M20">
+        <v>25</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K17">
-        <v>0.7659574468085106</v>
-      </c>
-      <c r="L17">
-        <v>36</v>
-      </c>
-      <c r="M17">
-        <v>36</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.008574150523975865</v>
-      </c>
-      <c r="C18">
+      <c r="K21">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="L21">
         <v>27</v>
       </c>
-      <c r="D18">
-        <v>79</v>
-      </c>
-      <c r="E18">
-        <v>0.66</v>
-      </c>
-      <c r="F18">
-        <v>0.34</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>3122</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18">
-        <v>0.75</v>
-      </c>
-      <c r="L18">
-        <v>36</v>
-      </c>
-      <c r="M18">
-        <v>36</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.0075046904315197</v>
-      </c>
-      <c r="C19">
-        <v>32</v>
-      </c>
-      <c r="D19">
-        <v>96</v>
-      </c>
-      <c r="E19">
-        <v>0.67</v>
-      </c>
-      <c r="F19">
-        <v>0.33</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>4232</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19">
-        <v>0.7435897435897436</v>
-      </c>
-      <c r="L19">
-        <v>29</v>
-      </c>
-      <c r="M19">
-        <v>29</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.007129761662253004</v>
-      </c>
-      <c r="C20">
-        <v>35</v>
-      </c>
-      <c r="D20">
-        <v>122</v>
-      </c>
-      <c r="E20">
-        <v>0.71</v>
-      </c>
-      <c r="F20">
-        <v>0.29</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>4874</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20">
-        <v>0.7428571428571429</v>
-      </c>
-      <c r="L20">
-        <v>26</v>
-      </c>
-      <c r="M20">
-        <v>26</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21">
-        <v>0.7209302325581395</v>
-      </c>
-      <c r="L21">
-        <v>31</v>
-      </c>
       <c r="M21">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1556,9 +1454,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K22">
         <v>0.68</v>
@@ -1582,18 +1480,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>0.6666666666666666</v>
+        <v>0.65</v>
       </c>
       <c r="L23">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="M23">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1605,21 +1503,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K24">
-        <v>0.6147058823529412</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L24">
-        <v>209</v>
+        <v>57</v>
       </c>
       <c r="M24">
-        <v>209</v>
+        <v>57</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1631,12 +1529,12 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K25">
         <v>0.5952380952380952</v>
@@ -1660,174 +1558,174 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26">
+        <v>0.5899581589958159</v>
+      </c>
+      <c r="L26">
+        <v>141</v>
+      </c>
+      <c r="M26">
+        <v>141</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27">
+        <v>0.5857142857142857</v>
+      </c>
+      <c r="L27">
+        <v>41</v>
+      </c>
+      <c r="M27">
+        <v>41</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28">
+        <v>0.5617977528089888</v>
+      </c>
+      <c r="L28">
         <v>50</v>
       </c>
-      <c r="K26">
-        <v>0.5857740585774058</v>
-      </c>
-      <c r="L26">
-        <v>140</v>
-      </c>
-      <c r="M26">
-        <v>140</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
+      <c r="M28">
+        <v>50</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29">
+        <v>0.5538461538461539</v>
+      </c>
+      <c r="L29">
+        <v>36</v>
+      </c>
+      <c r="M29">
+        <v>36</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30">
+        <v>0.3717948717948718</v>
+      </c>
+      <c r="L30">
+        <v>29</v>
+      </c>
+      <c r="M30">
+        <v>29</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K27">
-        <v>0.574468085106383</v>
-      </c>
-      <c r="L27">
-        <v>54</v>
-      </c>
-      <c r="M27">
-        <v>54</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
+      <c r="K31">
+        <v>0.3698630136986301</v>
+      </c>
+      <c r="L31">
+        <v>27</v>
+      </c>
+      <c r="M31">
+        <v>27</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K28">
-        <v>0.5730337078651685</v>
-      </c>
-      <c r="L28">
-        <v>51</v>
-      </c>
-      <c r="M28">
-        <v>51</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L29">
-        <v>40</v>
-      </c>
-      <c r="M29">
-        <v>40</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30">
-        <v>0.5076923076923077</v>
-      </c>
-      <c r="L30">
-        <v>33</v>
-      </c>
-      <c r="M30">
-        <v>33</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
+      <c r="K32">
+        <v>0.05850091407678245</v>
+      </c>
+      <c r="L32">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K31">
-        <v>0.410958904109589</v>
-      </c>
-      <c r="L31">
-        <v>30</v>
-      </c>
-      <c r="M31">
-        <v>30</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K32">
-        <v>0.3717948717948718</v>
-      </c>
-      <c r="L32">
-        <v>29</v>
-      </c>
       <c r="M32">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1839,21 +1737,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>49</v>
+        <v>515</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.05128205128205128</v>
+        <v>0.04924874791318865</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="M33">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="N33">
         <v>0.97</v>
@@ -1865,319 +1763,319 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>518</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.04096989966555184</v>
+        <v>0.03353658536585366</v>
       </c>
       <c r="L34">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="N34">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="O34">
-        <v>0.07999999999999996</v>
+        <v>0.13</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>1147</v>
+        <v>951</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.03350253807106599</v>
+        <v>0.02408477842003854</v>
       </c>
       <c r="L35">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M35">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N35">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="O35">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>952</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K36">
-        <v>0.02562170308967596</v>
+        <v>0.0230357877416701</v>
       </c>
       <c r="L36">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="M36">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N36">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="O36">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>2586</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0.02206809583858764</v>
+        <v>0.02275600505689001</v>
       </c>
       <c r="L37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M37">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N37">
-        <v>0.8100000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="O37">
-        <v>0.1899999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>1551</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K38">
-        <v>0.02186468646864687</v>
+        <v>0.02258185923974407</v>
       </c>
       <c r="L38">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M38">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N38">
-        <v>0.72</v>
+        <v>0.79</v>
       </c>
       <c r="O38">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>2371</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K39">
-        <v>0.01969823973176865</v>
+        <v>0.02108907774630154</v>
       </c>
       <c r="L39">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="M39">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="N39">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="O39">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>2339</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K40">
-        <v>0.01753678693811732</v>
+        <v>0.01698886936145284</v>
       </c>
       <c r="L40">
         <v>87</v>
       </c>
       <c r="M40">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N40">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="O40">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>4874</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.0167675826734979</v>
+        <v>0.01506906655504395</v>
       </c>
       <c r="L41">
         <v>36</v>
       </c>
       <c r="M41">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N41">
-        <v>0.77</v>
+        <v>0.88</v>
       </c>
       <c r="O41">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>2111</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K42">
-        <v>0.01638311279143037</v>
+        <v>0.01472664918297357</v>
       </c>
       <c r="L42">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="M42">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="N42">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="O42">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>3122</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>0.0148975791433892</v>
+        <v>0.01304145319049837</v>
       </c>
       <c r="L43">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="M43">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="N43">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="O43">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>4232</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="K44">
-        <v>0.01466849207901428</v>
+        <v>0.01137357830271216</v>
       </c>
       <c r="L44">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="M44">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="N44">
-        <v>0.59</v>
+        <v>0.53</v>
       </c>
       <c r="O44">
-        <v>0.41</v>
+        <v>0.47</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>5038</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K45">
-        <v>0.01274725274725275</v>
+        <v>0.007912497090993717</v>
       </c>
       <c r="L45">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M45">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N45">
-        <v>0.46</v>
+        <v>0.52</v>
       </c>
       <c r="O45">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>2246</v>
+        <v>4263</v>
       </c>
     </row>
   </sheetData>
